--- a/data/Classess_2020.xlsx
+++ b/data/Classess_2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="532">
   <si>
     <t>Family</t>
   </si>
@@ -777,6 +777,9 @@
     <t>st069228</t>
   </si>
   <si>
+    <t>st069228@ad.pu.ru</t>
+  </si>
+  <si>
     <t>Ласьков</t>
   </si>
   <si>
@@ -1140,6 +1143,9 @@
     <t>st092164</t>
   </si>
   <si>
+    <t>st092164@student.spbu.ru</t>
+  </si>
+  <si>
     <t>Сотникова</t>
   </si>
   <si>
@@ -1309,6 +1315,9 @@
   </si>
   <si>
     <t>st068449</t>
+  </si>
+  <si>
+    <t>st068449@ad.pu.ru</t>
   </si>
   <si>
     <t>Яковлева</t>
@@ -1613,12 +1622,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1692,6 +1701,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF315EFB"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1700,8 +1776,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1723,99 +1830,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1830,7 +1845,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,55 +1881,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,19 +1923,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1926,7 +1941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1944,13 +1959,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,43 +2007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,7 +2025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,48 +2050,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2122,6 +2095,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2136,157 +2142,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2326,6 +2341,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2649,8 +2667,8 @@
   <sheetPr/>
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
@@ -4546,7 +4564,7 @@
         <v>251</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="2"/>
@@ -4564,25 +4582,25 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E54" s="3">
         <v>5</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="2"/>
@@ -4600,25 +4618,25 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>177</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E55" s="3">
         <v>5</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="2"/>
@@ -4636,7 +4654,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>241</v>
@@ -4645,16 +4663,16 @@
         <v>60</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E56" s="3">
         <v>3</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="2"/>
@@ -4672,25 +4690,25 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E57">
         <v>3</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="2"/>
@@ -4708,25 +4726,25 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="2"/>
@@ -4744,7 +4762,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>187</v>
@@ -4753,16 +4771,16 @@
         <v>100</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="2"/>
@@ -4780,7 +4798,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>69</v>
@@ -4789,16 +4807,16 @@
         <v>44</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E60" s="3">
         <v>2</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="2"/>
@@ -4816,25 +4834,25 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E61" s="3">
         <v>6</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="2"/>
@@ -4852,25 +4870,25 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E62" s="3">
         <v>6</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="2"/>
@@ -4888,25 +4906,25 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E63" s="3">
         <v>6</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="2"/>
@@ -4924,25 +4942,25 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E64" s="3">
         <v>5</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="2"/>
@@ -4960,7 +4978,7 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>113</v>
@@ -4969,16 +4987,16 @@
         <v>114</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E65" s="3">
         <v>7</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="2"/>
@@ -4996,25 +5014,25 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="2"/>
@@ -5032,25 +5050,25 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E67" s="3">
         <v>6</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="2"/>
@@ -5068,25 +5086,25 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E68" s="3">
         <v>6</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="2"/>
@@ -5104,25 +5122,25 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E69" s="3">
         <v>6</v>
       </c>
       <c r="F69" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="2"/>
@@ -5140,7 +5158,7 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>155</v>
@@ -5149,16 +5167,16 @@
         <v>100</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E70" s="3">
         <v>6</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="2"/>
@@ -5176,7 +5194,7 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>43</v>
@@ -5185,16 +5203,16 @@
         <v>60</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E71" s="3">
         <v>6</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="2"/>
@@ -5212,7 +5230,7 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>69</v>
@@ -5221,16 +5239,16 @@
         <v>60</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E72">
         <v>6</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="2"/>
@@ -5248,25 +5266,25 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>177</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E73" s="3">
         <v>7</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="2"/>
@@ -5284,7 +5302,7 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>118</v>
@@ -5293,16 +5311,16 @@
         <v>19</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E74" s="3">
         <v>7</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="2"/>
@@ -5320,25 +5338,25 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>198</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E75" s="3">
         <v>6</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="2"/>
@@ -5356,7 +5374,7 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>69</v>
@@ -5365,16 +5383,16 @@
         <v>132</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E76" s="3">
         <v>7</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="2"/>
@@ -5392,25 +5410,25 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E77" s="3">
         <v>7</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="2"/>
@@ -5428,25 +5446,25 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E78" s="3">
         <v>7</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="2"/>
@@ -5464,25 +5482,25 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E79" s="3">
         <v>7</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="2"/>
@@ -5500,7 +5518,7 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>232</v>
@@ -5509,16 +5527,16 @@
         <v>34</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E80" s="3">
         <v>7</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="2"/>
@@ -5536,7 +5554,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>118</v>
@@ -5545,16 +5563,16 @@
         <v>34</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E81" s="3">
         <v>7</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="2"/>
@@ -5572,25 +5590,25 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E82" s="3">
         <v>7</v>
       </c>
       <c r="F82" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>368</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="2"/>
@@ -5608,7 +5626,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>69</v>
@@ -5617,16 +5635,16 @@
         <v>104</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E83" s="3">
         <v>5</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>371</v>
+        <v>373</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>374</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="2"/>
@@ -5644,25 +5662,25 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E84" s="3">
         <v>5</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="2"/>
@@ -5680,25 +5698,25 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E85" s="3">
         <v>7</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="2"/>
@@ -5716,25 +5734,25 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E86" s="3">
         <v>5</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="2"/>
@@ -5752,25 +5770,25 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E87">
         <v>7</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="2"/>
@@ -5788,25 +5806,25 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E88" s="3">
         <v>1</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="2"/>
@@ -5824,25 +5842,25 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="2"/>
@@ -5860,25 +5878,25 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E90" s="3">
         <v>5</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="2"/>
@@ -5896,25 +5914,25 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E91" s="3">
         <v>5</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="2"/>
@@ -5932,25 +5950,25 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E92" s="3">
         <v>4</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="2"/>
@@ -5968,7 +5986,7 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>69</v>
@@ -5977,16 +5995,16 @@
         <v>104</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="2"/>
@@ -6004,25 +6022,25 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E94" s="3">
         <v>2</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="2"/>
@@ -6040,7 +6058,7 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>69</v>
@@ -6049,16 +6067,16 @@
         <v>100</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E95" s="3">
         <v>6</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H95" s="8"/>
       <c r="I95" s="2"/>
@@ -6076,7 +6094,7 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>237</v>
@@ -6085,18 +6103,17 @@
         <v>104</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E96" s="3">
         <v>3</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="H96" s="8"/>
+        <v>432</v>
+      </c>
       <c r="I96" s="2"/>
       <c r="J96" s="3"/>
       <c r="K96" s="8"/>
@@ -6112,7 +6129,7 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="5" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>33</v>
@@ -6121,16 +6138,16 @@
         <v>146</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E97" s="3">
         <v>7</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="2"/>
@@ -6210,8 +6227,8 @@
     <hyperlink ref="D88" r:id="rId54" display="st078335@student.spbu.ru" tooltip="mailto:st078335@student.spbu.ru"/>
     <hyperlink ref="D97" r:id="rId55" display="st076056@student.spbu.ru" tooltip="mailto:st076056@student.spbu.ru"/>
     <hyperlink ref="G42" r:id="rId56" display="st076008@student.spbu.ru"/>
-    <hyperlink ref="G83" r:id="rId57" display="st092164@student.spbu.ru " tooltip="mailto:st092164@student.spbu.ru "/>
-    <hyperlink ref="D83" r:id="rId58" display="st092164@student.spbu.ru "/>
+    <hyperlink ref="G83" r:id="rId57" display="st092164@student.spbu.ru" tooltip="mailto:st092164@student.spbu.ru"/>
+    <hyperlink ref="D83" r:id="rId58" display="st092164@student.spbu.ru " tooltip="mailto:st092164@student.spbu.ru "/>
     <hyperlink ref="G13" r:id="rId59" display="st092163@student.spbu.ru"/>
     <hyperlink ref="G49" r:id="rId60" display="st092135@student.spbu.ru"/>
   </hyperlinks>
@@ -6236,7 +6253,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6244,7 +6261,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6252,7 +6269,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6260,7 +6277,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -6268,7 +6285,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -6276,7 +6293,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -6284,7 +6301,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -6292,7 +6309,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -6300,7 +6317,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -6308,7 +6325,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -6316,7 +6333,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -6324,7 +6341,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
@@ -6332,7 +6349,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -6340,7 +6357,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -6348,7 +6365,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
@@ -6356,7 +6373,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6364,7 +6381,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -6372,7 +6389,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -6380,7 +6397,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -6388,7 +6405,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -6396,7 +6413,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -6404,7 +6421,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
@@ -6412,7 +6429,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -6420,7 +6437,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -6428,7 +6445,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -6436,7 +6453,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
@@ -6444,7 +6461,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -6452,7 +6469,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6460,7 +6477,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -6468,7 +6485,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -6476,7 +6493,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -6484,7 +6501,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -6492,7 +6509,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -6500,7 +6517,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
@@ -6508,7 +6525,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -6516,7 +6533,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B36" s="3">
         <v>4</v>
@@ -6524,7 +6541,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B37" s="3">
         <v>6</v>
@@ -6532,7 +6549,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
@@ -6540,7 +6557,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -6548,7 +6565,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
@@ -6556,7 +6573,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -6564,7 +6581,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -6572,7 +6589,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
@@ -6580,7 +6597,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
@@ -6588,7 +6605,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
@@ -6596,7 +6613,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B46" s="3">
         <v>5</v>
@@ -6604,7 +6621,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B47" s="3">
         <v>7</v>
@@ -6612,7 +6629,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B48" s="3">
         <v>5</v>
@@ -6620,7 +6637,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
@@ -6628,7 +6645,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B50" s="3">
         <v>5</v>
@@ -6636,7 +6653,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
@@ -6644,7 +6661,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -6652,7 +6669,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B53" s="3">
         <v>5</v>
@@ -6660,7 +6677,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B54" s="3">
         <v>5</v>
@@ -6668,7 +6685,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
@@ -6676,7 +6693,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -6684,7 +6701,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B57" s="3">
         <v>5</v>
@@ -6692,7 +6709,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B58" s="3">
         <v>6</v>
@@ -6700,7 +6717,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -6708,7 +6725,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B60" s="3">
         <v>6</v>
@@ -6716,7 +6733,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B61" s="3">
         <v>6</v>
@@ -6724,7 +6741,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B62" s="3">
         <v>6</v>
@@ -6732,7 +6749,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B63" s="3">
         <v>5</v>
@@ -6740,7 +6757,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B64" s="3">
         <v>7</v>
@@ -6748,7 +6765,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -6756,7 +6773,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B66" s="3">
         <v>6</v>
@@ -6764,7 +6781,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B67" s="3">
         <v>6</v>
@@ -6772,7 +6789,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B68" s="3">
         <v>6</v>
@@ -6780,7 +6797,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B69" s="3">
         <v>6</v>
@@ -6788,7 +6805,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B70" s="3">
         <v>6</v>
@@ -6796,7 +6813,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -6804,7 +6821,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B72" s="3">
         <v>7</v>
@@ -6812,7 +6829,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B73" s="3">
         <v>7</v>
@@ -6820,7 +6837,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B74" s="3">
         <v>6</v>
@@ -6828,7 +6845,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B75" s="3">
         <v>7</v>
@@ -6836,7 +6853,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B76" s="3">
         <v>7</v>
@@ -6844,7 +6861,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B77" s="3">
         <v>7</v>
@@ -6852,7 +6869,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B78" s="3">
         <v>7</v>
@@ -6860,7 +6877,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B79" s="3">
         <v>7</v>
@@ -6868,7 +6885,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B80" s="3">
         <v>7</v>
@@ -6876,7 +6893,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B81" s="3">
         <v>7</v>
@@ -6884,7 +6901,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B82" s="3">
         <v>5</v>
@@ -6892,7 +6909,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B83" s="3">
         <v>5</v>
@@ -6900,7 +6917,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B84" s="3">
         <v>7</v>
@@ -6908,7 +6925,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B85" s="3">
         <v>5</v>
@@ -6916,7 +6933,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -6924,7 +6941,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -6932,7 +6949,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -6940,7 +6957,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B89" s="3">
         <v>5</v>
@@ -6948,7 +6965,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B90" s="3">
         <v>5</v>
@@ -6956,7 +6973,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B91" s="3">
         <v>4</v>
@@ -6964,7 +6981,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
@@ -6972,7 +6989,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
@@ -6980,7 +6997,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B94" s="3">
         <v>6</v>
@@ -6988,7 +7005,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
@@ -6996,7 +7013,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B96" s="3">
         <v>7</v>

--- a/data/Classess_2020.xlsx
+++ b/data/Classess_2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9407"/>
+    <workbookView windowWidth="22368" windowHeight="9407"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$96</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="528">
   <si>
     <t>Family</t>
   </si>
@@ -1054,18 +1054,6 @@
   </si>
   <si>
     <t>st076266</t>
-  </si>
-  <si>
-    <t>Рябинина</t>
-  </si>
-  <si>
-    <t>Алина</t>
-  </si>
-  <si>
-    <t>st080417@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>st080417</t>
   </si>
   <si>
     <t>Савосина</t>
@@ -1622,10 +1610,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1715,7 +1703,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1730,7 +1787,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1746,69 +1803,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1822,17 +1817,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1845,7 +1833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1863,7 +1851,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1875,31 +1965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,43 +1989,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,73 +2013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,28 +2042,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,39 +2068,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2146,6 +2090,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2159,19 +2147,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2183,121 +2171,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2665,10 +2653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
@@ -2722,7 +2710,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>11</v>
@@ -2758,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>16</v>
@@ -2794,7 +2782,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
@@ -2866,7 +2854,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
@@ -2902,7 +2890,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>36</v>
@@ -2974,7 +2962,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>46</v>
@@ -3010,7 +2998,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>51</v>
@@ -3046,7 +3034,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>57</v>
@@ -3190,7 +3178,7 @@
         <v>75</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>76</v>
@@ -3226,7 +3214,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>80</v>
@@ -3262,7 +3250,7 @@
         <v>83</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>84</v>
@@ -3370,7 +3358,7 @@
         <v>96</v>
       </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>97</v>
@@ -3406,7 +3394,7 @@
         <v>101</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>102</v>
@@ -3442,7 +3430,7 @@
         <v>105</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>106</v>
@@ -3478,7 +3466,7 @@
         <v>109</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>110</v>
@@ -3586,7 +3574,7 @@
         <v>123</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>124</v>
@@ -3622,7 +3610,7 @@
         <v>129</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>130</v>
@@ -3658,7 +3646,7 @@
         <v>133</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>134</v>
@@ -3694,7 +3682,7 @@
         <v>138</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>139</v>
@@ -3730,7 +3718,7 @@
         <v>143</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>144</v>
@@ -3766,7 +3754,7 @@
         <v>147</v>
       </c>
       <c r="E31" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>148</v>
@@ -3874,7 +3862,7 @@
         <v>161</v>
       </c>
       <c r="E34" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>162</v>
@@ -3910,7 +3898,7 @@
         <v>167</v>
       </c>
       <c r="E35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>168</v>
@@ -3982,7 +3970,7 @@
         <v>173</v>
       </c>
       <c r="E37" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>174</v>
@@ -4018,7 +4006,7 @@
         <v>178</v>
       </c>
       <c r="E38" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>179</v>
@@ -4054,7 +4042,7 @@
         <v>184</v>
       </c>
       <c r="E39" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>185</v>
@@ -4090,7 +4078,7 @@
         <v>189</v>
       </c>
       <c r="E40" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>190</v>
@@ -4126,7 +4114,7 @@
         <v>194</v>
       </c>
       <c r="E41" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>195</v>
@@ -4198,7 +4186,7 @@
         <v>203</v>
       </c>
       <c r="E43" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>204</v>
@@ -4234,7 +4222,7 @@
         <v>208</v>
       </c>
       <c r="E44" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>209</v>
@@ -4270,7 +4258,7 @@
         <v>214</v>
       </c>
       <c r="E45" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>215</v>
@@ -4306,7 +4294,7 @@
         <v>218</v>
       </c>
       <c r="E46" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>219</v>
@@ -4342,7 +4330,7 @@
         <v>224</v>
       </c>
       <c r="E47" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>225</v>
@@ -4378,7 +4366,7 @@
         <v>228</v>
       </c>
       <c r="E48" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>229</v>
@@ -4414,7 +4402,7 @@
         <v>233</v>
       </c>
       <c r="E49" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>234</v>
@@ -4450,7 +4438,7 @@
         <v>238</v>
       </c>
       <c r="E50" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>239</v>
@@ -4486,7 +4474,7 @@
         <v>243</v>
       </c>
       <c r="E51" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>244</v>
@@ -4558,7 +4546,7 @@
         <v>250</v>
       </c>
       <c r="E53" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>251</v>
@@ -4594,7 +4582,7 @@
         <v>256</v>
       </c>
       <c r="E54" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>257</v>
@@ -4702,7 +4690,7 @@
         <v>267</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>268</v>
@@ -4738,7 +4726,7 @@
         <v>272</v>
       </c>
       <c r="E58" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>273</v>
@@ -4810,7 +4798,7 @@
         <v>278</v>
       </c>
       <c r="E60" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>279</v>
@@ -4846,7 +4834,7 @@
         <v>282</v>
       </c>
       <c r="E61" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>283</v>
@@ -4882,7 +4870,7 @@
         <v>286</v>
       </c>
       <c r="E62" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>287</v>
@@ -4918,7 +4906,7 @@
         <v>292</v>
       </c>
       <c r="E63" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>293</v>
@@ -4954,7 +4942,7 @@
         <v>296</v>
       </c>
       <c r="E64" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>297</v>
@@ -4990,7 +4978,7 @@
         <v>299</v>
       </c>
       <c r="E65" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>300</v>
@@ -5026,7 +5014,7 @@
         <v>304</v>
       </c>
       <c r="E66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>305</v>
@@ -5062,7 +5050,7 @@
         <v>309</v>
       </c>
       <c r="E67" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>310</v>
@@ -5134,7 +5122,7 @@
         <v>316</v>
       </c>
       <c r="E69" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>317</v>
@@ -5170,7 +5158,7 @@
         <v>319</v>
       </c>
       <c r="E70" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>320</v>
@@ -5242,7 +5230,7 @@
         <v>327</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>328</v>
@@ -5278,7 +5266,7 @@
         <v>331</v>
       </c>
       <c r="E73" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>332</v>
@@ -5314,7 +5302,7 @@
         <v>335</v>
       </c>
       <c r="E74" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>336</v>
@@ -5350,7 +5338,7 @@
         <v>340</v>
       </c>
       <c r="E75" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>341</v>
@@ -5386,7 +5374,7 @@
         <v>343</v>
       </c>
       <c r="E76" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>344</v>
@@ -5413,22 +5401,22 @@
         <v>345</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="15" t="s">
         <v>347</v>
       </c>
       <c r="E77" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>348</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="2"/>
@@ -5446,25 +5434,25 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E78" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="2"/>
@@ -5482,19 +5470,19 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D79" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>356</v>
       </c>
       <c r="E79" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>357</v>
@@ -5521,16 +5509,16 @@
         <v>359</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="15" t="s">
         <v>360</v>
       </c>
       <c r="E80" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>361</v>
@@ -5557,22 +5545,22 @@
         <v>363</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>118</v>
+        <v>364</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>364</v>
+        <v>295</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="E81" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G81" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="2"/>
@@ -5593,22 +5581,22 @@
         <v>367</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="3">
+        <v>6</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E82" s="3">
-        <v>7</v>
-      </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="19" t="s">
         <v>370</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="2"/>
@@ -5629,22 +5617,22 @@
         <v>371</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>372</v>
+        <v>132</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="E83" s="3">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="2"/>
@@ -5668,13 +5656,13 @@
         <v>376</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>377</v>
       </c>
       <c r="E84" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>378</v>
@@ -5703,14 +5691,14 @@
       <c r="B85" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="9" t="s">
+      <c r="C85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>381</v>
       </c>
       <c r="E85" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>382</v>
@@ -5737,26 +5725,26 @@
         <v>383</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="E86" s="3">
-        <v>5</v>
+      <c r="E86">
+        <v>2</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>386</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="3"/>
+      <c r="J86"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -5770,29 +5758,29 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="E87">
-        <v>7</v>
+        <v>390</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E87" s="3">
+        <v>6</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>391</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="2"/>
-      <c r="J87"/>
+      <c r="J87" s="3"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -5806,25 +5794,25 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>393</v>
+        <v>87</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="5" t="s">
         <v>395</v>
       </c>
       <c r="E88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>396</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="2"/>
@@ -5842,25 +5830,25 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="E89" s="3">
         <v>1</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="2"/>
@@ -5878,25 +5866,25 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>405</v>
+        <v>34</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>406</v>
       </c>
       <c r="E90" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="2"/>
@@ -5914,25 +5902,25 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E91" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="2"/>
@@ -5950,25 +5938,25 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>414</v>
+        <v>69</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D92" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>415</v>
       </c>
       <c r="E92" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>416</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="2"/>
@@ -5986,19 +5974,19 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>419</v>
       </c>
       <c r="E93" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>420</v>
@@ -6025,22 +6013,22 @@
         <v>421</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="E94" s="3">
+        <v>4</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="E94" s="3">
-        <v>2</v>
-      </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>423</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="2"/>
@@ -6061,16 +6049,16 @@
         <v>425</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D95" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>426</v>
       </c>
       <c r="E95" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>427</v>
@@ -6078,7 +6066,6 @@
       <c r="G95" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="H95" s="8"/>
       <c r="I95" s="2"/>
       <c r="J95" s="3"/>
       <c r="K95" s="8"/>
@@ -6097,23 +6084,24 @@
         <v>429</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D96" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>430</v>
       </c>
       <c r="E96" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>431</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>432</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="H96" s="8"/>
       <c r="I96" s="2"/>
       <c r="J96" s="3"/>
       <c r="K96" s="8"/>
@@ -6127,44 +6115,8 @@
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
     </row>
-    <row r="97" spans="1:20">
-      <c r="A97" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="E97" s="3">
-        <v>7</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G97">
+  <autoFilter ref="A1:G96">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G97">
@@ -6178,14 +6130,14 @@
     <hyperlink ref="D62" r:id="rId5" display="lera.sleepy@gmail.com" tooltip="mailto:lera.sleepy@gmail.com"/>
     <hyperlink ref="D72" r:id="rId6" display="st076502@student.spbu.ru" tooltip="mailto:st076502@student.spbu.ru"/>
     <hyperlink ref="D75" r:id="rId7" display="st075764@student.spbu.ru" tooltip="mailto:st075764@student.spbu.ru"/>
-    <hyperlink ref="D81" r:id="rId8" display="kselezneva2001@gmail.com" tooltip="mailto:kselezneva2001@gmail.com"/>
-    <hyperlink ref="D90" r:id="rId9" display="adeliaharisova.ah@gmail.com" tooltip="mailto:adeliaharisova.ah@gmail.com"/>
+    <hyperlink ref="D80" r:id="rId8" display="kselezneva2001@gmail.com" tooltip="mailto:kselezneva2001@gmail.com"/>
+    <hyperlink ref="D89" r:id="rId9" display="adeliaharisova.ah@gmail.com" tooltip="mailto:adeliaharisova.ah@gmail.com"/>
     <hyperlink ref="D18" r:id="rId10" display="st078576@student.spbu.ru" tooltip="mailto:st078576@student.spbu.ru"/>
     <hyperlink ref="D19" r:id="rId11" display="st078483@student.spbu.ru" tooltip="mailto:st078483@student.spbu.ru"/>
     <hyperlink ref="D54" r:id="rId12" display="st078464@student.spbu.ru" tooltip="mailto:st078464@student.spbu.ru"/>
     <hyperlink ref="D67" r:id="rId13" display="st076316@student.spbu.ru" tooltip="mailto:st076316@student.spbu.ru"/>
-    <hyperlink ref="D78" r:id="rId14" display="lousavsin@gmail.com" tooltip="mailto:lousavsin@gmail.com"/>
-    <hyperlink ref="D87" r:id="rId15" display="toropov.01@bk.ru" tooltip="mailto:toropov.01@bk.ru"/>
+    <hyperlink ref="D77" r:id="rId14" display="lousavsin@gmail.com" tooltip="mailto:lousavsin@gmail.com"/>
+    <hyperlink ref="D86" r:id="rId15" display="toropov.01@bk.ru" tooltip="mailto:toropov.01@bk.ru"/>
     <hyperlink ref="D5" r:id="rId16" display="st076849@student.spbu.ru" tooltip="mailto:st076849@student.spbu.ru"/>
     <hyperlink ref="D15" r:id="rId17" display="st076957@student.spbu.ru" tooltip="mailto:st076957@student.spbu.ru"/>
     <hyperlink ref="D23" r:id="rId18" display="yyvy.yvyvy@bk.ru" tooltip="mailto:yyvy.yvyvy@bk.ru"/>
@@ -6197,17 +6149,17 @@
     <hyperlink ref="D56" r:id="rId24" display="st076462@student.spbu.ru" tooltip="mailto:st076462@student.spbu.ru"/>
     <hyperlink ref="D60" r:id="rId25" display="st078860@student.spbu.ru" tooltip="mailto:st078860@student.spbu.ru"/>
     <hyperlink ref="D63" r:id="rId26" display="st081219@student.spbu.ru" tooltip="mailto:st081219@student.spbu.ru"/>
-    <hyperlink ref="D93" r:id="rId27" display="st076447@student.spbu.ru" tooltip="mailto:st076447@student.spbu.ru"/>
-    <hyperlink ref="D94" r:id="rId28" display="st076287@student.spbu.ru" tooltip="mailto:st076287@student.spbu.ru"/>
-    <hyperlink ref="D95" r:id="rId29" display="yuzhaninova.marina@mail.ru" tooltip="mailto:yuzhaninova.marina@mail.ru"/>
+    <hyperlink ref="D92" r:id="rId27" display="st076447@student.spbu.ru" tooltip="mailto:st076447@student.spbu.ru"/>
+    <hyperlink ref="D93" r:id="rId28" display="st076287@student.spbu.ru" tooltip="mailto:st076287@student.spbu.ru"/>
+    <hyperlink ref="D94" r:id="rId29" display="yuzhaninova.marina@mail.ru" tooltip="mailto:yuzhaninova.marina@mail.ru"/>
     <hyperlink ref="D9" r:id="rId30" display="st078018@student.spbu.ru" tooltip="mailto:st078018@student.spbu.ru"/>
     <hyperlink ref="D22" r:id="rId31" display="st076689@student.spbu.ru" tooltip="mailto:st076689@student.spbu.ru"/>
     <hyperlink ref="D52" r:id="rId32" display="st064217@student.spbu.ru" tooltip="mailto:st064217@student.spbu.ru"/>
     <hyperlink ref="D74" r:id="rId33" display="petrenko.kate@icloud.com" tooltip="mailto:petrenko.kate@icloud.com"/>
     <hyperlink ref="D76" r:id="rId34" display="st076266@student.spbu.ru" tooltip="mailto:st076266@student.spbu.ru"/>
-    <hyperlink ref="D79" r:id="rId35" display="lvsea@mail.ru" tooltip="mailto:lvsea@mail.ru"/>
-    <hyperlink ref="D91" r:id="rId36" display="h.hudyakova@mail.ru" tooltip="mailto:h.hudyakova@mail.ru"/>
-    <hyperlink ref="D92" r:id="rId37" display="Bluecup@list.ru" tooltip="mailto:Bluecup@list.ru"/>
+    <hyperlink ref="D78" r:id="rId35" display="lvsea@mail.ru" tooltip="mailto:lvsea@mail.ru"/>
+    <hyperlink ref="D90" r:id="rId36" display="h.hudyakova@mail.ru" tooltip="mailto:h.hudyakova@mail.ru"/>
+    <hyperlink ref="D91" r:id="rId37" display="Bluecup@list.ru" tooltip="mailto:Bluecup@list.ru"/>
     <hyperlink ref="D6" r:id="rId38" display="st081183@student.spbu.ru" tooltip="mailto:st081183@student.spbu.ru"/>
     <hyperlink ref="D7" r:id="rId39" display="st083455@student.spbu.ru" tooltip="mailto:st083455@student.spbu.ru"/>
     <hyperlink ref="D16" r:id="rId40" display="0310.lera@gmail.com" tooltip="mailto:0310.lera@gmail.com"/>
@@ -6218,17 +6170,17 @@
     <hyperlink ref="D45" r:id="rId45" display="st076842@student.spbu.ru" tooltip="mailto:st076842@student.spbu.ru"/>
     <hyperlink ref="D48" r:id="rId46" display="kor.daria.99@mail.ru" tooltip="mailto:kor.daria.99@mail.ru"/>
     <hyperlink ref="D73" r:id="rId47" display="this_is_perets@mail.ru" tooltip="mailto:this_is_perets@mail.ru"/>
-    <hyperlink ref="D80" r:id="rId48" display="niksamusik@gmail.com" tooltip="mailto:niksamusik@gmail.com"/>
+    <hyperlink ref="D79" r:id="rId48" display="niksamusik@gmail.com" tooltip="mailto:niksamusik@gmail.com"/>
     <hyperlink ref="D8" r:id="rId49" display="st078729@student.spbu.ru" tooltip="mailto:st078729@student.spbu.ru"/>
     <hyperlink ref="D26" r:id="rId50" display="kategulk@gmail.com" tooltip="mailto:kategulk@gmail.com"/>
     <hyperlink ref="D59" r:id="rId51" display="st076107@student.spbu.ru" tooltip="mailto:st076107@student.spbu.ru"/>
     <hyperlink ref="D68" r:id="rId52" display="st075591@student.spbu.ru" tooltip="mailto:st075591@student.spbu.ru"/>
-    <hyperlink ref="D85" r:id="rId53" display="st076396@student.spbu.ru" tooltip="mailto:st076396@student.spbu.ru"/>
-    <hyperlink ref="D88" r:id="rId54" display="st078335@student.spbu.ru" tooltip="mailto:st078335@student.spbu.ru"/>
-    <hyperlink ref="D97" r:id="rId55" display="st076056@student.spbu.ru" tooltip="mailto:st076056@student.spbu.ru"/>
+    <hyperlink ref="D84" r:id="rId53" display="st076396@student.spbu.ru" tooltip="mailto:st076396@student.spbu.ru"/>
+    <hyperlink ref="D87" r:id="rId54" display="st078335@student.spbu.ru" tooltip="mailto:st078335@student.spbu.ru"/>
+    <hyperlink ref="D96" r:id="rId55" display="st076056@student.spbu.ru" tooltip="mailto:st076056@student.spbu.ru"/>
     <hyperlink ref="G42" r:id="rId56" display="st076008@student.spbu.ru"/>
-    <hyperlink ref="G83" r:id="rId57" display="st092164@student.spbu.ru" tooltip="mailto:st092164@student.spbu.ru"/>
-    <hyperlink ref="D83" r:id="rId58" display="st092164@student.spbu.ru " tooltip="mailto:st092164@student.spbu.ru "/>
+    <hyperlink ref="G82" r:id="rId57" display="st092164@student.spbu.ru" tooltip="mailto:st092164@student.spbu.ru"/>
+    <hyperlink ref="D82" r:id="rId58" display="st092164@student.spbu.ru " tooltip="mailto:st092164@student.spbu.ru "/>
     <hyperlink ref="G13" r:id="rId59" display="st092163@student.spbu.ru"/>
     <hyperlink ref="G49" r:id="rId60" display="st092135@student.spbu.ru"/>
   </hyperlinks>
@@ -6253,7 +6205,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -6261,7 +6213,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6269,7 +6221,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6277,7 +6229,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -6285,7 +6237,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -6293,7 +6245,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -6301,7 +6253,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
@@ -6309,7 +6261,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -6317,7 +6269,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -6325,7 +6277,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -6333,7 +6285,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -6341,7 +6293,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
@@ -6349,7 +6301,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -6357,7 +6309,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -6365,7 +6317,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
@@ -6373,7 +6325,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -6381,7 +6333,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -6389,7 +6341,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -6397,7 +6349,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -6405,7 +6357,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -6413,7 +6365,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -6421,7 +6373,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
@@ -6429,7 +6381,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -6437,7 +6389,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -6445,7 +6397,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -6453,7 +6405,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
@@ -6461,7 +6413,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -6469,7 +6421,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6477,7 +6429,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -6485,7 +6437,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -6493,7 +6445,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -6501,7 +6453,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -6509,7 +6461,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -6517,7 +6469,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B34" s="3">
         <v>4</v>
@@ -6525,7 +6477,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -6533,7 +6485,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B36" s="3">
         <v>4</v>
@@ -6541,7 +6493,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B37" s="3">
         <v>6</v>
@@ -6549,7 +6501,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B38" s="3">
         <v>4</v>
@@ -6557,7 +6509,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -6565,7 +6517,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
@@ -6573,7 +6525,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -6581,7 +6533,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -6589,7 +6541,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
@@ -6597,7 +6549,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
@@ -6605,7 +6557,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
@@ -6613,7 +6565,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B46" s="3">
         <v>5</v>
@@ -6621,7 +6573,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B47" s="3">
         <v>7</v>
@@ -6629,7 +6581,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B48" s="3">
         <v>5</v>
@@ -6637,7 +6589,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
@@ -6645,7 +6597,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B50" s="3">
         <v>5</v>
@@ -6653,7 +6605,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
@@ -6661,7 +6613,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -6669,7 +6621,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B53" s="3">
         <v>5</v>
@@ -6677,7 +6629,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B54" s="3">
         <v>5</v>
@@ -6685,7 +6637,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B55" s="3">
         <v>3</v>
@@ -6693,7 +6645,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -6701,7 +6653,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B57" s="3">
         <v>5</v>
@@ -6709,7 +6661,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B58" s="3">
         <v>6</v>
@@ -6717,7 +6669,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B59" s="3">
         <v>2</v>
@@ -6725,7 +6677,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B60" s="3">
         <v>6</v>
@@ -6733,7 +6685,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B61" s="3">
         <v>6</v>
@@ -6741,7 +6693,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B62" s="3">
         <v>6</v>
@@ -6749,7 +6701,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B63" s="3">
         <v>5</v>
@@ -6757,7 +6709,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B64" s="3">
         <v>7</v>
@@ -6765,7 +6717,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -6773,7 +6725,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B66" s="3">
         <v>6</v>
@@ -6781,7 +6733,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B67" s="3">
         <v>6</v>
@@ -6789,7 +6741,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B68" s="3">
         <v>6</v>
@@ -6797,7 +6749,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B69" s="3">
         <v>6</v>
@@ -6805,7 +6757,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B70" s="3">
         <v>6</v>
@@ -6813,7 +6765,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -6821,7 +6773,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B72" s="3">
         <v>7</v>
@@ -6829,7 +6781,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B73" s="3">
         <v>7</v>
@@ -6837,7 +6789,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B74" s="3">
         <v>6</v>
@@ -6845,7 +6797,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B75" s="3">
         <v>7</v>
@@ -6853,7 +6805,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B76" s="3">
         <v>7</v>
@@ -6861,7 +6813,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B77" s="3">
         <v>7</v>
@@ -6869,7 +6821,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B78" s="3">
         <v>7</v>
@@ -6877,7 +6829,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B79" s="3">
         <v>7</v>
@@ -6885,7 +6837,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B80" s="3">
         <v>7</v>
@@ -6893,7 +6845,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B81" s="3">
         <v>7</v>
@@ -6901,7 +6853,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B82" s="3">
         <v>5</v>
@@ -6909,7 +6861,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B83" s="3">
         <v>5</v>
@@ -6917,7 +6869,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B84" s="3">
         <v>7</v>
@@ -6925,7 +6877,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B85" s="3">
         <v>5</v>
@@ -6933,7 +6885,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -6941,7 +6893,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
@@ -6949,7 +6901,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
@@ -6957,7 +6909,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B89" s="3">
         <v>5</v>
@@ -6965,7 +6917,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B90" s="3">
         <v>5</v>
@@ -6973,7 +6925,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B91" s="3">
         <v>4</v>
@@ -6981,7 +6933,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B92" s="3">
         <v>2</v>
@@ -6989,7 +6941,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
@@ -6997,7 +6949,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B94" s="3">
         <v>6</v>
@@ -7005,7 +6957,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
@@ -7013,7 +6965,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B96" s="3">
         <v>7</v>

--- a/data/Classess_2020.xlsx
+++ b/data/Classess_2020.xlsx
@@ -1696,16 +1696,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1717,7 +1718,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1732,30 +1778,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1763,24 +1786,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1801,28 +1823,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1833,7 +1833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,7 +1851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,7 +1863,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,13 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,25 +1917,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,103 +2007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2042,17 +2042,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2068,6 +2071,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,15 +2125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2130,30 +2139,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2165,127 +2165,127 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2655,8 +2655,8 @@
   <sheetPr/>
   <dimension ref="A1:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
